--- a/public/be_assets/exam/tempImportExam.xlsx
+++ b/public/be_assets/exam/tempImportExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t xml:space="preserve">TEMPLATE UJIAN URAIAN
 </t>
@@ -27,13 +27,16 @@
     <t>SOAL</t>
   </si>
   <si>
-    <t>apa bahasa jawanya pintar</t>
-  </si>
-  <si>
-    <t>mahluk tuhan paling seksi ?</t>
-  </si>
-  <si>
-    <t>anime sub indo download dimana ?</t>
+    <t>soal tanpa gmbr no 1</t>
+  </si>
+  <si>
+    <t>soal tanpa gmbr no 3 test soal soal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soal tanpa gmbr no 3 test soal soal soal </t>
+  </si>
+  <si>
+    <t>be_assets\exam\exam_d66b5eaa-3e22-4e05-80c2-09ff0a444609.png</t>
   </si>
 </sst>
 </file>
@@ -100,6 +103,48 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2295525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>876300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 5" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0">
+          <a:ext cx="2162175" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,15 +437,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="33" customWidth="true" style="0"/>
+    <col min="2" max="2" width="42.7109375" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -454,6 +499,14 @@
       </c>
       <c r="B9" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" customHeight="1" ht="80.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -474,6 +527,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <tableParts count="0"/>
 </worksheet>
 </file>
--- a/public/be_assets/exam/tempImportExam.xlsx
+++ b/public/be_assets/exam/tempImportExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t xml:space="preserve">TEMPLATE UJIAN URAIAN
 </t>
@@ -36,7 +36,10 @@
     <t xml:space="preserve">soal tanpa gmbr no 3 test soal soal soal </t>
   </si>
   <si>
-    <t>be_assets\exam\exam_d66b5eaa-3e22-4e05-80c2-09ff0a444609.png</t>
+    <t>be_assets\exam\exam_abd4e26f-5c1b-4da4-8dc9-e34a2f37efd0.png</t>
+  </si>
+  <si>
+    <t>be_assets\exam\exam_fffa81df-a25e-473a-8434-7cc0ab07d550.png</t>
   </si>
 </sst>
 </file>
@@ -136,6 +139,43 @@
       <xdr:spPr>
         <a:xfrm rot="0">
           <a:ext cx="2162175" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2676525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1571625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0">
+          <a:ext cx="2628900" cy="1504950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -437,10 +477,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A4">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,6 +547,14 @@
       </c>
       <c r="B10" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" customHeight="1" ht="129.75">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/be_assets/exam/tempImportExam.xlsx
+++ b/public/be_assets/exam/tempImportExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t xml:space="preserve">TEMPLATE UJIAN URAIAN
 </t>
@@ -36,10 +36,13 @@
     <t xml:space="preserve">soal tanpa gmbr no 3 test soal soal soal </t>
   </si>
   <si>
-    <t>be_assets\exam\exam_abd4e26f-5c1b-4da4-8dc9-e34a2f37efd0.png</t>
-  </si>
-  <si>
-    <t>be_assets\exam\exam_fffa81df-a25e-473a-8434-7cc0ab07d550.png</t>
+    <t>Soal tanpa gambar no 6</t>
+  </si>
+  <si>
+    <t>be_assets\exam\exam_dd679054-a098-4688-8089-f91aaf6fe8c2.png</t>
+  </si>
+  <si>
+    <t>be_assets\exam\exam_55a817d0-4840-4b71-a16a-411d3e78e2b1.png</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A4">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -546,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" customHeight="1" ht="129.75">
@@ -554,7 +557,15 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
